--- a/sputnik/personal/uch/uch69.xlsx
+++ b/sputnik/personal/uch/uch69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -40,13 +37,19 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 57 к.д.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,13 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -154,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -172,17 +182,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +509,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,10 +523,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -519,11 +537,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>10109.19</v>
@@ -531,11 +549,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43344</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -543,11 +561,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7">
         <v>9965.67</v>
@@ -555,11 +573,11 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>43796</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7">
@@ -570,10 +588,10 @@
       <c r="A7" s="13">
         <v>43796</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15">
         <f>PRODUCT(D6,57,0.001)</f>
         <v>568.0431900000001</v>
       </c>
@@ -592,9 +610,6 @@
       <c r="D9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch69.xlsx
+++ b/sputnik/personal/uch/uch69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,12 +43,18 @@
   </si>
   <si>
     <t>Наименование / садовый участок №69</t>
+  </si>
+  <si>
+    <t>Оплачены пени</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,11 +182,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,7 +200,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,7 +517,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,10 +531,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -537,77 +545,83 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>10109.19</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>43344</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14">
         <v>10109.19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>43586</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="15">
         <v>9965.67</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43796</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
+      <c r="C6" s="16"/>
+      <c r="D6" s="15">
         <v>9965.67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>43796</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <f>PRODUCT(D6,57,0.001)</f>
         <v>568.0431900000001</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="13">
+        <v>43941</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch69.xlsx
+++ b/sputnik/personal/uch/uch69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплачены пени</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,9 +621,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="16">
+        <v>11212.5</v>
+      </c>
       <c r="D9" s="16"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch69.xlsx
+++ b/sputnik/personal/uch/uch69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -82,7 +82,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,8 +95,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -169,11 +175,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,17 +216,25 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,10 +542,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -554,10 +579,10 @@
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>10109.19</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -566,8 +591,8 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12">
         <v>10109.19</v>
       </c>
     </row>
@@ -578,10 +603,10 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>9965.67</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -590,47 +615,71 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="15">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13">
         <v>9965.67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="18">
         <v>43796</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="20">
         <f>PRODUCT(D6,57,0.001)</f>
         <v>568.0431900000001</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="22">
         <v>43941</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>43952</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>11212.5</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>44074</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="14">
+        <v>11212.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>44074</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23">
+        <v>68.040000000000006</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch69.xlsx
+++ b/sputnik/personal/uch/uch69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A12" sqref="A12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -680,6 +683,48 @@
       <c r="D11" s="23">
         <v>68.040000000000006</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11957.01</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch69.xlsx
+++ b/sputnik/personal/uch/uch69.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Аванс</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,8 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,7 +550,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,11 +642,11 @@
       <c r="A8" s="22">
         <v>43941</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <v>500</v>
       </c>
     </row>
@@ -676,11 +678,11 @@
       <c r="A11" s="22">
         <v>44074</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19">
         <v>68.040000000000006</v>
       </c>
     </row>
@@ -697,16 +699,28 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="11">
+        <v>44425</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <v>11957.01</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="11">
+        <v>44425</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>1529.49</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
